--- a/results/nested_cv_results_SIDER_rare.xlsx
+++ b/results/nested_cv_results_SIDER_rare.xlsx
@@ -831,40 +831,40 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.7516804100351363</v>
+        <v>0.7178861621936307</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1519634857536356</v>
+        <v>0.03012690782600005</v>
       </c>
       <c r="E9" t="n">
-        <v>0.815806114382772</v>
+        <v>0.7636587576017806</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1478341145330978</v>
+        <v>0.03646936950184869</v>
       </c>
       <c r="G9" t="n">
-        <v>0.6849644366906879</v>
+        <v>0.6440884004070334</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1383408079313608</v>
+        <v>0.0229649332060125</v>
       </c>
       <c r="I9" t="n">
-        <v>0.06671597334444843</v>
+        <v>0.07379776178659728</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0153019538803347</v>
+        <v>0.008443263017642434</v>
       </c>
       <c r="K9" t="n">
-        <v>0.6978242744926226</v>
+        <v>0.6377493536281507</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1352246503214111</v>
+        <v>0.02534541852647259</v>
       </c>
       <c r="M9" t="n">
-        <v>0.1179818398901493</v>
+        <v>0.1259094039736298</v>
       </c>
       <c r="N9" t="n">
-        <v>0.01506280381143805</v>
+        <v>0.01527007357005336</v>
       </c>
     </row>
     <row r="10">
@@ -875,40 +875,40 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.606089474419701</v>
+        <v>0.6056492852156445</v>
       </c>
       <c r="D10" t="n">
-        <v>0.07685547688244855</v>
+        <v>0.07697562710590863</v>
       </c>
       <c r="E10" t="n">
-        <v>0.6660550898903859</v>
+        <v>0.6576812473863298</v>
       </c>
       <c r="F10" t="n">
-        <v>0.05660243907454528</v>
+        <v>0.06013539467219977</v>
       </c>
       <c r="G10" t="n">
-        <v>0.5813592859850416</v>
+        <v>0.5809405753805967</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0741723255405228</v>
+        <v>0.07416544707546527</v>
       </c>
       <c r="I10" t="n">
-        <v>0.02473018843465931</v>
+        <v>0.02470870983504773</v>
       </c>
       <c r="J10" t="n">
-        <v>0.008278238216447808</v>
+        <v>0.00829666845912473</v>
       </c>
       <c r="K10" t="n">
-        <v>0.5806742633130897</v>
+        <v>0.5795549075464372</v>
       </c>
       <c r="L10" t="n">
-        <v>0.05302033181619696</v>
+        <v>0.04968160061377567</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0853808265772962</v>
+        <v>0.07812633983989262</v>
       </c>
       <c r="N10" t="n">
-        <v>0.007063754720347616</v>
+        <v>0.01168808693861883</v>
       </c>
     </row>
     <row r="11">
@@ -1099,40 +1099,40 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.626013427759416</v>
+        <v>0.8079185339296758</v>
       </c>
       <c r="D15" t="n">
-        <v>0.05484117001001214</v>
+        <v>0.03632767078008196</v>
       </c>
       <c r="E15" t="n">
-        <v>0.6837268949231776</v>
+        <v>0.8635206384919953</v>
       </c>
       <c r="F15" t="n">
-        <v>0.03911799999246261</v>
+        <v>0.02685364240658237</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5847759324965779</v>
+        <v>0.7384011578043534</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0584441519081163</v>
+        <v>0.02297433408666442</v>
       </c>
       <c r="I15" t="n">
-        <v>0.04123749526283815</v>
+        <v>0.06951737612532238</v>
       </c>
       <c r="J15" t="n">
-        <v>0.01687633465047183</v>
+        <v>0.01571916867612565</v>
       </c>
       <c r="K15" t="n">
-        <v>0.6026080475888838</v>
+        <v>0.7546126873902919</v>
       </c>
       <c r="L15" t="n">
-        <v>0.04456151582486845</v>
+        <v>0.01882951822838482</v>
       </c>
       <c r="M15" t="n">
-        <v>0.08111884733429377</v>
+        <v>0.1089079511017035</v>
       </c>
       <c r="N15" t="n">
-        <v>0.02096360720865383</v>
+        <v>0.00942529244199568</v>
       </c>
     </row>
     <row r="16">
@@ -1143,40 +1143,40 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.5123837320626425</v>
+        <v>0.5123837182153708</v>
       </c>
       <c r="D16" t="n">
-        <v>0.01966538176872832</v>
+        <v>0.01966538377699118</v>
       </c>
       <c r="E16" t="n">
-        <v>0.5215112274014115</v>
+        <v>0.5215112952691059</v>
       </c>
       <c r="F16" t="n">
-        <v>0.03874464292404642</v>
+        <v>0.03874455063333689</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5026071303409172</v>
+        <v>0.5026071175953823</v>
       </c>
       <c r="H16" t="n">
-        <v>0.01877148297199078</v>
+        <v>0.01877148587649867</v>
       </c>
       <c r="I16" t="n">
-        <v>0.009776601721725299</v>
+        <v>0.009776600619988526</v>
       </c>
       <c r="J16" t="n">
-        <v>0.003103363807627998</v>
+        <v>0.003103364152262185</v>
       </c>
       <c r="K16" t="n">
-        <v>0.4997726694195173</v>
+        <v>0.4997727382296018</v>
       </c>
       <c r="L16" t="n">
-        <v>0.02795986146828297</v>
+        <v>0.02795977090622144</v>
       </c>
       <c r="M16" t="n">
-        <v>0.0217385579818942</v>
+        <v>0.02173855703950409</v>
       </c>
       <c r="N16" t="n">
-        <v>0.01355527785685634</v>
+        <v>0.01355527765743139</v>
       </c>
     </row>
     <row r="17">
@@ -1367,40 +1367,40 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.6221754883682683</v>
+        <v>0.662569495566616</v>
       </c>
       <c r="D21" t="n">
-        <v>0.02074246917239283</v>
+        <v>0.02416057696788218</v>
       </c>
       <c r="E21" t="n">
-        <v>0.6545550717479467</v>
+        <v>0.6857857785565702</v>
       </c>
       <c r="F21" t="n">
-        <v>0.01893689814505552</v>
+        <v>0.02017298851666934</v>
       </c>
       <c r="G21" t="n">
-        <v>0.5799596657292942</v>
+        <v>0.6119547752869513</v>
       </c>
       <c r="H21" t="n">
-        <v>0.02588732359577886</v>
+        <v>0.02602033047554607</v>
       </c>
       <c r="I21" t="n">
-        <v>0.04221582263897417</v>
+        <v>0.05061472027966472</v>
       </c>
       <c r="J21" t="n">
-        <v>0.006686069929609633</v>
+        <v>0.003089204064529835</v>
       </c>
       <c r="K21" t="n">
-        <v>0.5742128852290148</v>
+        <v>0.5978107599268941</v>
       </c>
       <c r="L21" t="n">
-        <v>0.01928427886477965</v>
+        <v>0.01555703265849276</v>
       </c>
       <c r="M21" t="n">
-        <v>0.08034218651893192</v>
+        <v>0.08797501862967599</v>
       </c>
       <c r="N21" t="n">
-        <v>0.00647120982444627</v>
+        <v>0.007205621323242811</v>
       </c>
     </row>
     <row r="22">
@@ -1411,40 +1411,40 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.5197818795265693</v>
+        <v>0.5198414618305082</v>
       </c>
       <c r="D22" t="n">
-        <v>0.02620922148817699</v>
+        <v>0.02624378954285753</v>
       </c>
       <c r="E22" t="n">
-        <v>0.531796869588202</v>
+        <v>0.5311343064111064</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0298109877101559</v>
+        <v>0.02871935105988859</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5112198727061943</v>
+        <v>0.5112813286733169</v>
       </c>
       <c r="H22" t="n">
-        <v>0.02510281765717351</v>
+        <v>0.02513890805571202</v>
       </c>
       <c r="I22" t="n">
-        <v>0.008562006820374954</v>
+        <v>0.008560133157191233</v>
       </c>
       <c r="J22" t="n">
-        <v>0.001428722390469578</v>
+        <v>0.001428581878553152</v>
       </c>
       <c r="K22" t="n">
-        <v>0.4998931574832811</v>
+        <v>0.5002212079782276</v>
       </c>
       <c r="L22" t="n">
-        <v>0.02534730430474122</v>
+        <v>0.02543905034899948</v>
       </c>
       <c r="M22" t="n">
-        <v>0.03190371210492098</v>
+        <v>0.03091309843287874</v>
       </c>
       <c r="N22" t="n">
-        <v>0.009629151437612671</v>
+        <v>0.008915038816858378</v>
       </c>
     </row>
     <row r="23">
@@ -1635,40 +1635,40 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.6337865303436051</v>
+        <v>0.7082979376485351</v>
       </c>
       <c r="D27" t="n">
-        <v>0.03044188241707856</v>
+        <v>0.04015751985928307</v>
       </c>
       <c r="E27" t="n">
-        <v>0.6394843261298003</v>
+        <v>0.6989822152246021</v>
       </c>
       <c r="F27" t="n">
-        <v>0.01255316119155923</v>
+        <v>0.03050820702085342</v>
       </c>
       <c r="G27" t="n">
-        <v>0.5720188133809849</v>
+        <v>0.6389140507953581</v>
       </c>
       <c r="H27" t="n">
-        <v>0.0105582362535836</v>
+        <v>0.02449616195510495</v>
       </c>
       <c r="I27" t="n">
-        <v>0.06176771696262025</v>
+        <v>0.06938388685317695</v>
       </c>
       <c r="J27" t="n">
-        <v>0.02202920968967091</v>
+        <v>0.01738924985474001</v>
       </c>
       <c r="K27" t="n">
-        <v>0.5471087800228314</v>
+        <v>0.5994492806075074</v>
       </c>
       <c r="L27" t="n">
-        <v>0.0137395382412755</v>
+        <v>0.02307942291966416</v>
       </c>
       <c r="M27" t="n">
-        <v>0.09237554610696892</v>
+        <v>0.09953293461709481</v>
       </c>
       <c r="N27" t="n">
-        <v>0.01240115709715987</v>
+        <v>0.009996380080559598</v>
       </c>
     </row>
     <row r="28">
@@ -1679,40 +1679,40 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.6723060288298293</v>
+        <v>0.6723120839368948</v>
       </c>
       <c r="D28" t="n">
-        <v>0.03109472615603933</v>
+        <v>0.03109212061246771</v>
       </c>
       <c r="E28" t="n">
-        <v>0.7365887477009327</v>
+        <v>0.7365245100535864</v>
       </c>
       <c r="F28" t="n">
-        <v>0.03343040817842615</v>
+        <v>0.03336831711892659</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6383778122500106</v>
+        <v>0.6383842551988534</v>
       </c>
       <c r="H28" t="n">
-        <v>0.0308981315767059</v>
+        <v>0.03089490477021142</v>
       </c>
       <c r="I28" t="n">
-        <v>0.03392821657981877</v>
+        <v>0.03392782873804132</v>
       </c>
       <c r="J28" t="n">
-        <v>0.01525397056101598</v>
+        <v>0.01525378770700994</v>
       </c>
       <c r="K28" t="n">
-        <v>0.6418912352120725</v>
+        <v>0.6418864149902443</v>
       </c>
       <c r="L28" t="n">
-        <v>0.02934670162317098</v>
+        <v>0.02935202430478285</v>
       </c>
       <c r="M28" t="n">
-        <v>0.09469751248886024</v>
+        <v>0.09463809506334209</v>
       </c>
       <c r="N28" t="n">
-        <v>0.01696161883728266</v>
+        <v>0.01694520379070127</v>
       </c>
     </row>
     <row r="29">
@@ -1903,40 +1903,40 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.6546940067755396</v>
+        <v>0.6401184041745235</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0395550731690168</v>
+        <v>0.05550972867353215</v>
       </c>
       <c r="E33" t="n">
-        <v>0.6820173568228075</v>
+        <v>0.6527728103094128</v>
       </c>
       <c r="F33" t="n">
-        <v>0.03097294217420394</v>
+        <v>0.04454184817189163</v>
       </c>
       <c r="G33" t="n">
-        <v>0.6126070644950764</v>
+        <v>0.5876170505222719</v>
       </c>
       <c r="H33" t="n">
-        <v>0.02216169201051942</v>
+        <v>0.04047064964716399</v>
       </c>
       <c r="I33" t="n">
-        <v>0.04208694228046317</v>
+        <v>0.05250135365225159</v>
       </c>
       <c r="J33" t="n">
-        <v>0.01827792751682284</v>
+        <v>0.01691419331693529</v>
       </c>
       <c r="K33" t="n">
-        <v>0.5945755391622474</v>
+        <v>0.5621583337028264</v>
       </c>
       <c r="L33" t="n">
-        <v>0.01859507999757224</v>
+        <v>0.03194028202939581</v>
       </c>
       <c r="M33" t="n">
-        <v>0.08744181766056008</v>
+        <v>0.09061447660658636</v>
       </c>
       <c r="N33" t="n">
-        <v>0.01334493274593437</v>
+        <v>0.01342020113434147</v>
       </c>
     </row>
     <row r="34">
@@ -1947,40 +1947,40 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.5850034219515351</v>
+        <v>0.5815747101665162</v>
       </c>
       <c r="D34" t="n">
-        <v>0.05727056319901174</v>
+        <v>0.0573142275064934</v>
       </c>
       <c r="E34" t="n">
-        <v>0.632572079480589</v>
+        <v>0.6205679900915098</v>
       </c>
       <c r="F34" t="n">
-        <v>0.04092555923483139</v>
+        <v>0.0386391849517201</v>
       </c>
       <c r="G34" t="n">
-        <v>0.5641566103781928</v>
+        <v>0.5608437976972549</v>
       </c>
       <c r="H34" t="n">
-        <v>0.04873463309034937</v>
+        <v>0.04798104204120931</v>
       </c>
       <c r="I34" t="n">
-        <v>0.02084681157334238</v>
+        <v>0.02073091246926131</v>
       </c>
       <c r="J34" t="n">
-        <v>0.01192200465673706</v>
+        <v>0.01192574456155118</v>
       </c>
       <c r="K34" t="n">
-        <v>0.5452722920961515</v>
+        <v>0.5414415711062738</v>
       </c>
       <c r="L34" t="n">
-        <v>0.03748864439211677</v>
+        <v>0.03245021664641739</v>
       </c>
       <c r="M34" t="n">
-        <v>0.08729978738443746</v>
+        <v>0.07912641898523601</v>
       </c>
       <c r="N34" t="n">
-        <v>0.01593646934496775</v>
+        <v>0.0177745537360339</v>
       </c>
     </row>
     <row r="35">
@@ -2171,40 +2171,40 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.7230543096484331</v>
+        <v>0.7152300729844857</v>
       </c>
       <c r="D39" t="n">
-        <v>0.01805749790507878</v>
+        <v>0.02325224056009817</v>
       </c>
       <c r="E39" t="n">
-        <v>0.7349786834397122</v>
+        <v>0.7221802384960936</v>
       </c>
       <c r="F39" t="n">
-        <v>0.01847254152221251</v>
+        <v>0.01548924229095913</v>
       </c>
       <c r="G39" t="n">
-        <v>0.7006509693638397</v>
+        <v>0.6885219901107683</v>
       </c>
       <c r="H39" t="n">
-        <v>0.01909698797355146</v>
+        <v>0.02273247642244938</v>
       </c>
       <c r="I39" t="n">
-        <v>0.02240334028459338</v>
+        <v>0.02670808287371733</v>
       </c>
       <c r="J39" t="n">
-        <v>0.005244760306990239</v>
+        <v>0.002579195263969925</v>
       </c>
       <c r="K39" t="n">
-        <v>0.7029324373442897</v>
+        <v>0.6820831781337763</v>
       </c>
       <c r="L39" t="n">
-        <v>0.021847621325175</v>
+        <v>0.01554283179533524</v>
       </c>
       <c r="M39" t="n">
-        <v>0.0320462460954225</v>
+        <v>0.04009706036231744</v>
       </c>
       <c r="N39" t="n">
-        <v>0.0100637941431372</v>
+        <v>0.002648302293788715</v>
       </c>
     </row>
     <row r="40">
@@ -2215,40 +2215,40 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.4513766840188912</v>
+        <v>0.4513880728469994</v>
       </c>
       <c r="D40" t="n">
-        <v>0.03479993122589249</v>
+        <v>0.03485469102740001</v>
       </c>
       <c r="E40" t="n">
-        <v>0.4353512343928084</v>
+        <v>0.4347224064340399</v>
       </c>
       <c r="F40" t="n">
-        <v>0.02919416032707015</v>
+        <v>0.0289171723972503</v>
       </c>
       <c r="G40" t="n">
-        <v>0.4429387356113154</v>
+        <v>0.4429512824049818</v>
       </c>
       <c r="H40" t="n">
-        <v>0.03367673658252448</v>
+        <v>0.03372933228510409</v>
       </c>
       <c r="I40" t="n">
-        <v>0.008437948407575899</v>
+        <v>0.008436790442017599</v>
       </c>
       <c r="J40" t="n">
-        <v>0.001502650889341796</v>
+        <v>0.001504088620761709</v>
       </c>
       <c r="K40" t="n">
-        <v>0.42103780242424</v>
+        <v>0.4209461162327675</v>
       </c>
       <c r="L40" t="n">
-        <v>0.03038566028940147</v>
+        <v>0.03040798666196362</v>
       </c>
       <c r="M40" t="n">
-        <v>0.01431343196856837</v>
+        <v>0.01377629020127243</v>
       </c>
       <c r="N40" t="n">
-        <v>0.001756101071952726</v>
+        <v>0.002308288755749418</v>
       </c>
     </row>
     <row r="41">
@@ -2439,40 +2439,40 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.7351477526443312</v>
+        <v>0.7240249533223513</v>
       </c>
       <c r="D45" t="n">
-        <v>0.04097742285707584</v>
+        <v>0.03857736188638163</v>
       </c>
       <c r="E45" t="n">
-        <v>0.7403533612748402</v>
+        <v>0.7262968111241667</v>
       </c>
       <c r="F45" t="n">
-        <v>0.01263369538555395</v>
+        <v>0.01965296617075243</v>
       </c>
       <c r="G45" t="n">
-        <v>0.7094536781940959</v>
+        <v>0.6978543181837285</v>
       </c>
       <c r="H45" t="n">
-        <v>0.03414579981385981</v>
+        <v>0.03266242212692076</v>
       </c>
       <c r="I45" t="n">
-        <v>0.0256940744502353</v>
+        <v>0.02617063513862288</v>
       </c>
       <c r="J45" t="n">
-        <v>0.007511734845827027</v>
+        <v>0.006491635311500535</v>
       </c>
       <c r="K45" t="n">
-        <v>0.7044556001844268</v>
+        <v>0.6889864218647753</v>
       </c>
       <c r="L45" t="n">
-        <v>0.01061223440064222</v>
+        <v>0.01702117700565947</v>
       </c>
       <c r="M45" t="n">
-        <v>0.03589776109041333</v>
+        <v>0.03731038925939125</v>
       </c>
       <c r="N45" t="n">
-        <v>0.006229397449708992</v>
+        <v>0.007515712882003796</v>
       </c>
     </row>
     <row r="46">
@@ -2483,40 +2483,40 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.5018569801049344</v>
+        <v>0.5018206433295936</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0100073728861112</v>
+        <v>0.01019015714731296</v>
       </c>
       <c r="E46" t="n">
-        <v>0.4754653348176648</v>
+        <v>0.4749498764285658</v>
       </c>
       <c r="F46" t="n">
-        <v>0.01382977761000159</v>
+        <v>0.01496486943571694</v>
       </c>
       <c r="G46" t="n">
-        <v>0.4927809383583116</v>
+        <v>0.4927539870680254</v>
       </c>
       <c r="H46" t="n">
-        <v>0.0102966653668248</v>
+        <v>0.01049379178409086</v>
       </c>
       <c r="I46" t="n">
-        <v>0.009076041746622767</v>
+        <v>0.009066656261568155</v>
       </c>
       <c r="J46" t="n">
-        <v>0.001396880795078032</v>
+        <v>0.001393298952708938</v>
       </c>
       <c r="K46" t="n">
-        <v>0.4572778875677369</v>
+        <v>0.4577652020668007</v>
       </c>
       <c r="L46" t="n">
-        <v>0.0156349218419108</v>
+        <v>0.01685517145103437</v>
       </c>
       <c r="M46" t="n">
-        <v>0.01818744724992805</v>
+        <v>0.01718467436176508</v>
       </c>
       <c r="N46" t="n">
-        <v>0.005235538378123846</v>
+        <v>0.005876785363010657</v>
       </c>
     </row>
   </sheetData>
